--- a/Backup Code/Michael Jackson's Moonwalker (Mega Drive)/Michael Jackson's Moonwalker plan.xlsx
+++ b/Backup Code/Michael Jackson's Moonwalker (Mega Drive)/Michael Jackson's Moonwalker plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -383,18 +383,12 @@
     <t>Dance of Infiltration</t>
   </si>
   <si>
-    <t>Clear Stage 6-1 [Hard]</t>
-  </si>
-  <si>
     <t>Starry Secrets Among the Stalactites</t>
   </si>
   <si>
     <t>Speed Demon</t>
   </si>
   <si>
-    <t>Clear Stage 6-1 without using a continue [Normal+]</t>
-  </si>
-  <si>
     <t>Cleaning the Streets</t>
   </si>
   <si>
@@ -437,48 +431,6 @@
     <t>Underground Mysteries</t>
   </si>
   <si>
-    <t>Complete Stage 1-1 under the par time 2m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 1-2 under the par time 2m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 1-3 under the par time 2m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 2-1 under the par time 3m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 2-2 under the par time 3m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 2-3 under the par time 3m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 3-1 under the par time 4m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 3-2 under the par time 4m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 3-3 under the par time 4m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 4-1 under the par time 5m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 5-2 under the par time 6m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 5-1 under the par time 6m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 4-3 under the par time 5m00s [Normal+]</t>
-  </si>
-  <si>
-    <t>Complete Stage 4-2 under the par time 5m00s [Normal+]</t>
-  </si>
-  <si>
     <t>Electric Avenue Transformation</t>
   </si>
   <si>
@@ -515,9 +467,6 @@
     <t>Emergency Entrance</t>
   </si>
   <si>
-    <t>Moonwalk over the entire bottom floor conveyor in stage 5-2 travelling against the direction of conveyor (left to right, no turning around)</t>
-  </si>
-  <si>
     <t>R1 Triggers?</t>
   </si>
   <si>
@@ -536,15 +485,6 @@
     <t>Moonlit Zombie Blitz</t>
   </si>
   <si>
-    <t>Break all computers and servers in stage 5-1 (9 total)</t>
-  </si>
-  <si>
-    <t>Perform a Moonwalk for 5 seconds (counts time while moving, resets when Moonwalk ends)</t>
-  </si>
-  <si>
-    <t>Moonwalk through a spider web in stage 4 any round (start Moonwalk before entering web, no turning around)</t>
-  </si>
-  <si>
     <t>Michael Jackson's Moonwalker (Mega Drive) (ES-jackic).md</t>
   </si>
   <si>
@@ -873,6 +813,66 @@
   </si>
   <si>
     <t>Michael Jackson's Moonwalker (Mega Drive) (Pt-SonCar).md</t>
+  </si>
+  <si>
+    <t>Complete Stage 1-1 under the par time 2m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 1-2 under the par time 2m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 1-3 under the par time 2m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 2-1 under the par time 3m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 2-2 under the par time 3m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 2-3 under the par time 3m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 3-1 under the par time 4m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 3-2 under the par time 4m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 3-3 under the par time 4m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 4-1 under the par time 5m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 4-2 under the par time 5m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 4-3 under the par time 5m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 5-1 under the par time 6m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Complete Stage 5-2 under the par time 6m00s on Normal+</t>
+  </si>
+  <si>
+    <t>Clear Stage 6-1 without using a continue on Normal+</t>
+  </si>
+  <si>
+    <t>Clear Stage 6-1 on Hard</t>
+  </si>
+  <si>
+    <t>Break all nine computers and servers in stage 5-1</t>
+  </si>
+  <si>
+    <t>Moonwalk through a spider web in stage 4 any round, start Moonwalk before entering web, no turning around</t>
+  </si>
+  <si>
+    <t>Perform a Moonwalk for 5 seconds, counts time while moving, resets when Moonwalk ends</t>
+  </si>
+  <si>
+    <t>Moonwalk over the entire bottom floor conveyor in stage 5-2 travelling against the direction of conveyor, left to right without turning around</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1273,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E53" sqref="E2:E53"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1320,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -1342,7 +1342,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -1386,7 +1386,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -1407,7 +1407,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
@@ -1428,7 +1428,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>17</v>
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>9</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>12</v>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>12</v>
@@ -1543,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -1608,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>134</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>81</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>13</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
         <v>81</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>12</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>12</v>
@@ -1734,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>81</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>12</v>
@@ -1776,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>12</v>
@@ -1818,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>143</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>82</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>15</v>
@@ -1934,7 +1934,7 @@
         <v>82</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>10</v>
@@ -1955,7 +1955,7 @@
         <v>82</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>10</v>
@@ -1976,7 +1976,7 @@
         <v>82</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>10</v>
@@ -1997,7 +1997,7 @@
         <v>82</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>10</v>
@@ -2018,7 +2018,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>10</v>
@@ -2039,7 +2039,7 @@
         <v>82</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>11</v>
@@ -2060,7 +2060,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>11</v>
@@ -2081,7 +2081,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>11</v>
@@ -2123,7 +2123,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>12</v>
@@ -2231,7 +2231,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>15</v>
@@ -2274,7 +2274,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>13</v>
@@ -2340,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>14</v>
@@ -2393,7 +2393,7 @@
         <v>50</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="G52" s="5"/>
     </row>
@@ -2415,7 +2415,7 @@
         <v>50</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3920,19 +3920,19 @@
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>36</v>
@@ -3943,19 +3943,19 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>36</v>
@@ -3966,19 +3966,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>36</v>
@@ -3989,19 +3989,19 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>36</v>
@@ -4012,19 +4012,19 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>36</v>
@@ -4058,19 +4058,19 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>36</v>
@@ -4081,19 +4081,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>36</v>
@@ -4104,19 +4104,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>36</v>
@@ -4127,19 +4127,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>36</v>
@@ -4150,19 +4150,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>36</v>
@@ -4173,19 +4173,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>36</v>
@@ -4196,19 +4196,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>36</v>
@@ -4219,19 +4219,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>36</v>
@@ -4242,19 +4242,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>36</v>
@@ -4265,19 +4265,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>36</v>
@@ -4288,19 +4288,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>36</v>
@@ -4311,19 +4311,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>36</v>
@@ -4334,19 +4334,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>36</v>
@@ -4357,19 +4357,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>36</v>
@@ -4380,19 +4380,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>36</v>
@@ -4403,19 +4403,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>36</v>
@@ -4426,19 +4426,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>6</v>
@@ -4515,16 +4515,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
         <v>29</v>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B3" s="7" t="str">
         <f>Achievements!F3</f>
-        <v>Perform a Moonwalk for 5 seconds (counts time while moving, resets when Moonwalk ends)</v>
+        <v>Perform a Moonwalk for 5 seconds, counts time while moving, resets when Moonwalk ends</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>20</v>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B10" s="7" t="str">
         <f>Achievements!F10</f>
-        <v>Moonwalk through a spider web in stage 4 any round (start Moonwalk before entering web, no turning around)</v>
+        <v>Moonwalk through a spider web in stage 4 any round, start Moonwalk before entering web, no turning around</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B11" s="7" t="str">
         <f>Achievements!F11</f>
-        <v>Break all computers and servers in stage 5-1 (9 total)</v>
+        <v>Break all nine computers and servers in stage 5-1</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B12" s="7" t="str">
         <f>Achievements!F12</f>
-        <v>Moonwalk over the entire bottom floor conveyor in stage 5-2 travelling against the direction of conveyor (left to right, no turning around)</v>
+        <v>Moonwalk over the entire bottom floor conveyor in stage 5-2 travelling against the direction of conveyor, left to right without turning around</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B15" s="7" t="str">
         <f>Achievements!F15</f>
-        <v>Complete Stage 1-1 under the par time 2m00s [Normal+]</v>
+        <v>Complete Stage 1-1 under the par time 2m00s on Normal+</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="B16" s="7" t="str">
         <f>Achievements!F16</f>
-        <v>Complete Stage 1-2 under the par time 2m00s [Normal+]</v>
+        <v>Complete Stage 1-2 under the par time 2m00s on Normal+</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>20</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B17" s="7" t="str">
         <f>Achievements!F17</f>
-        <v>Complete Stage 1-3 under the par time 2m00s [Normal+]</v>
+        <v>Complete Stage 1-3 under the par time 2m00s on Normal+</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>20</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B18" s="7" t="str">
         <f>Achievements!F18</f>
-        <v>Complete Stage 2-1 under the par time 3m00s [Normal+]</v>
+        <v>Complete Stage 2-1 under the par time 3m00s on Normal+</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B19" s="7" t="str">
         <f>Achievements!F19</f>
-        <v>Complete Stage 2-2 under the par time 3m00s [Normal+]</v>
+        <v>Complete Stage 2-2 under the par time 3m00s on Normal+</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>20</v>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B20" s="7" t="str">
         <f>Achievements!F20</f>
-        <v>Complete Stage 2-3 under the par time 3m00s [Normal+]</v>
+        <v>Complete Stage 2-3 under the par time 3m00s on Normal+</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>20</v>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="B21" s="7" t="str">
         <f>Achievements!F21</f>
-        <v>Complete Stage 3-1 under the par time 4m00s [Normal+]</v>
+        <v>Complete Stage 3-1 under the par time 4m00s on Normal+</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>20</v>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B22" s="7" t="str">
         <f>Achievements!F22</f>
-        <v>Complete Stage 3-2 under the par time 4m00s [Normal+]</v>
+        <v>Complete Stage 3-2 under the par time 4m00s on Normal+</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>20</v>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B23" s="7" t="str">
         <f>Achievements!F23</f>
-        <v>Complete Stage 3-3 under the par time 4m00s [Normal+]</v>
+        <v>Complete Stage 3-3 under the par time 4m00s on Normal+</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>20</v>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B24" s="7" t="str">
         <f>Achievements!F24</f>
-        <v>Complete Stage 4-1 under the par time 5m00s [Normal+]</v>
+        <v>Complete Stage 4-1 under the par time 5m00s on Normal+</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>20</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="B25" s="7" t="str">
         <f>Achievements!F25</f>
-        <v>Complete Stage 4-2 under the par time 5m00s [Normal+]</v>
+        <v>Complete Stage 4-2 under the par time 5m00s on Normal+</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>20</v>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B26" s="7" t="str">
         <f>Achievements!F26</f>
-        <v>Complete Stage 4-3 under the par time 5m00s [Normal+]</v>
+        <v>Complete Stage 4-3 under the par time 5m00s on Normal+</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>20</v>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B27" s="7" t="str">
         <f>Achievements!F27</f>
-        <v>Complete Stage 5-1 under the par time 6m00s [Normal+]</v>
+        <v>Complete Stage 5-1 under the par time 6m00s on Normal+</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>20</v>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B28" s="7" t="str">
         <f>Achievements!F28</f>
-        <v>Complete Stage 5-2 under the par time 6m00s [Normal+]</v>
+        <v>Complete Stage 5-2 under the par time 6m00s on Normal+</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>20</v>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B52" s="7" t="str">
         <f>Achievements!F52</f>
-        <v>Clear Stage 6-1 [Hard]</v>
+        <v>Clear Stage 6-1 on Hard</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>20</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="B53" s="7" t="str">
         <f>Achievements!F53</f>
-        <v>Clear Stage 6-1 without using a continue [Normal+]</v>
+        <v>Clear Stage 6-1 without using a continue on Normal+</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>20</v>
@@ -6402,7 +6402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6:R6"/>
     </sheetView>
   </sheetViews>
@@ -6421,67 +6421,67 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>20</v>
@@ -6534,10 +6534,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>20</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>20</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>20</v>
@@ -6702,10 +6702,10 @@
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>20</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>20</v>
@@ -6814,10 +6814,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>20</v>
@@ -6870,10 +6870,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>20</v>
@@ -6981,7 +6981,7 @@
     <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Fool Gravity","Perform a Moonwalk for 5 seconds (counts time while moving, resets when Moonwalk ends)", 3, trigger)</v>
+        <v>achievement("Fool Gravity","Perform a Moonwalk for 5 seconds, counts time while moving, resets when Moonwalk ends", 3, trigger)</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7023,19 +7023,19 @@
     <row r="11" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Non-stick Dancing","Moonwalk through a spider web in stage 4 any round (start Moonwalk before entering web, no turning around)", 3, trigger)</v>
+        <v>achievement("Non-stick Dancing","Moonwalk through a spider web in stage 4 any round, start Moonwalk before entering web, no turning around", 3, trigger)</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("CTRL+Alt+Destroyer","Break all computers and servers in stage 5-1 (9 total)", 5, trigger)</v>
+        <v>achievement("CTRL+Alt+Destroyer","Break all nine computers and servers in stage 5-1", 5, trigger)</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Faster Going Backwards","Moonwalk over the entire bottom floor conveyor in stage 5-2 travelling against the direction of conveyor (left to right, no turning around)", 5, trigger)</v>
+        <v>achievement("Faster Going Backwards","Moonwalk over the entire bottom floor conveyor in stage 5-2 travelling against the direction of conveyor, left to right without turning around", 5, trigger)</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7053,85 +7053,85 @@
     <row r="16" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Nightlife Dash","Complete Stage 1-1 under the par time 2m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Nightlife Dash","Complete Stage 1-1 under the par time 2m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Club Fever Frenzy","Complete Stage 1-2 under the par time 2m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Club Fever Frenzy","Complete Stage 1-2 under the par time 2m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Speed Walk","Complete Stage 1-3 under the par time 2m00s [Normal+]", 10, trigger)</v>
+        <v>achievement("Speed Walk","Complete Stage 1-3 under the par time 2m00s on Normal+", 10, trigger)</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Midnight Street Race","Complete Stage 2-1 under the par time 3m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Midnight Street Race","Complete Stage 2-1 under the par time 3m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Chasing the Urban Beat","Complete Stage 2-2 under the par time 3m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Chasing the Urban Beat","Complete Stage 2-2 under the par time 3m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Streets of Speed","Complete Stage 2-3 under the par time 3m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Streets of Speed","Complete Stage 2-3 under the par time 3m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Moonlit Zombie Blitz","Complete Stage 3-1 under the par time 4m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Moonlit Zombie Blitz","Complete Stage 3-1 under the par time 4m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Chasing Shadows in the Haunted Woods","Complete Stage 3-2 under the par time 4m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Chasing Shadows in the Haunted Woods","Complete Stage 3-2 under the par time 4m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Survivor’s Dance of the Living Dead","Complete Stage 3-3 under the par time 4m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Survivor’s Dance of the Living Dead","Complete Stage 3-3 under the par time 4m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Cave of Eight-Legged Tango","Complete Stage 4-1 under the par time 5m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Cave of Eight-Legged Tango","Complete Stage 4-1 under the par time 5m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Dancing Through the Spider’s Lair","Complete Stage 4-2 under the par time 5m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Dancing Through the Spider’s Lair","Complete Stage 4-2 under the par time 5m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Underground Escape","Complete Stage 4-3 under the par time 5m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Underground Escape","Complete Stage 4-3 under the par time 5m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Sprint Through Hostile Territory","Complete Stage 5-1 under the par time 6m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Sprint Through Hostile Territory","Complete Stage 5-1 under the par time 6m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Dance of Infiltration","Complete Stage 5-2 under the par time 6m00s [Normal+]", 5, trigger)</v>
+        <v>achievement("Dance of Infiltration","Complete Stage 5-2 under the par time 6m00s on Normal+", 5, trigger)</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -7275,13 +7275,13 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("King of Pop ","Clear Stage 6-1 [Hard]", 50, trigger)</v>
+        <v>achievement("King of Pop ","Clear Stage 6-1 on Hard", 50, trigger)</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Moonwalker","Clear Stage 6-1 without using a continue [Normal+]", 50, trigger)</v>
+        <v>achievement("Moonwalker","Clear Stage 6-1 without using a continue on Normal+", 50, trigger)</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
